--- a/biology/Zoologie/Anoplotherium/Anoplotherium.xlsx
+++ b/biology/Zoologie/Anoplotherium/Anoplotherium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anoplotherium  est un genre éteint d’herbivores terrestres de la famille des Anoplotheriidae,  vivant en Europe de l'Ouest à l'Oligocène inférieur, soit il y a environ entre 33,9 et 28,1 millions d'années.
 Une trentaine de spécimens fossiles ont été découverts, principalement en France et en Grande-Bretagne. Le premier d'entre eux a été mis au jour en 1804 par Georges Cuvier dans les carrières de gypse de la butte Montmartre à Paris.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Eurytherium Gervais, 1852
 Hoplotherium Meyer, 1841
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Animaux ongulés avec une longue queue et une dentition peu différenciée.
 </t>
@@ -576,7 +592,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Anoplotherium commune (espèce type)
 Anoplotherium latipes
